--- a/backend/static/templates/试题批量导入模板.xlsx
+++ b/backend/static/templates/试题批量导入模板.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>题型</t>
   </si>
@@ -195,181 +195,82 @@
     <t>SLS 是 Shopee 自有跨境物流服务。</t>
   </si>
   <si>
-    <t>搜索广告中，决定商品排名的核心公式是？</t>
-  </si>
-  <si>
-    <t>出价 + 转化率</t>
-  </si>
-  <si>
-    <t>出价 × 质量得分</t>
-  </si>
-  <si>
-    <t>仅取决于出价</t>
-  </si>
-  <si>
-    <t>点击量 × 出价</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>多选题</t>
+  </si>
+  <si>
+    <t>以下哪些因素会直接影响商品的“质量得分”？</t>
+  </si>
+  <si>
+    <t>商品标题相关性</t>
+  </si>
+  <si>
+    <t>图片美观度/点击率</t>
+  </si>
+  <si>
+    <t>店铺历史表现</t>
+  </si>
+  <si>
+    <t>客服回复速度</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>困难</t>
+  </si>
+  <si>
+    <t>广告权重</t>
+  </si>
+  <si>
+    <t>质量得分主要由相关性、点击率（CTR）及店铺/商品表现构成。</t>
+  </si>
+  <si>
+    <t>判断题</t>
+  </si>
+  <si>
+    <t>在 Shopee 聊聊中，卖家可以引导买家到 WhatsApp 进行私下交易。</t>
+  </si>
+  <si>
+    <t>正确</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>平台规范</t>
+  </si>
+  <si>
+    <t>引导线下交易会导致店铺扣分甚至永久封禁。</t>
+  </si>
+  <si>
+    <t>填空题</t>
+  </si>
+  <si>
+    <t>Shopee 的订单履约期限（DTS）通常设置为 ___ 到 ___ 个工作日。</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>发货时效</t>
+  </si>
+  <si>
+    <t>现货 DTS 为 2个工作日，预售为 3-10个工作日。</t>
+  </si>
+  <si>
+    <t>简答题</t>
+  </si>
+  <si>
+    <t>请简述如何通过“加价购”（Add-on Deal）提升客单价？</t>
   </si>
   <si>
     <t>中等</t>
   </si>
   <si>
-    <t>广告优化</t>
-  </si>
-  <si>
-    <t>排名由点击出价和质量得分（CTR、相关性等）共同决定。</t>
-  </si>
-  <si>
-    <t>卖家因违反上架规则（如重复刊登）获得的惩罚计分，会在何时清零？</t>
-  </si>
-  <si>
-    <t>每个月月底</t>
-  </si>
-  <si>
-    <t>每季度第一个周一</t>
-  </si>
-  <si>
-    <t>获得计分后的第28天</t>
-  </si>
-  <si>
-    <t>每年12月31日</t>
-  </si>
-  <si>
-    <t>卖家表现</t>
-  </si>
-  <si>
-    <t>计分按季度循环计算，每季度第一个周一重置。</t>
-  </si>
-  <si>
-    <t>多选题</t>
-  </si>
-  <si>
-    <t>以下哪些因素会直接影响商品的“质量得分”？</t>
-  </si>
-  <si>
-    <t>商品标题相关性</t>
-  </si>
-  <si>
-    <t>图片美观度/点击率</t>
-  </si>
-  <si>
-    <t>店铺历史表现</t>
-  </si>
-  <si>
-    <t>客服回复速度</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>困难</t>
-  </si>
-  <si>
-    <t>广告权重</t>
-  </si>
-  <si>
-    <t>质量得分主要由相关性、点击率（CTR）及店铺/商品表现构成。</t>
-  </si>
-  <si>
-    <t>Shopee 严禁销售的“禁售品”通常包括哪些？</t>
-  </si>
-  <si>
-    <t>易燃易爆品</t>
-  </si>
-  <si>
-    <t>假冒伪劣产品</t>
-  </si>
-  <si>
-    <t>当地国家货币</t>
-  </si>
-  <si>
-    <t>成人用品（部分站点限制）</t>
-  </si>
-  <si>
-    <t>ABCDEF</t>
-  </si>
-  <si>
-    <t>合规运营</t>
-  </si>
-  <si>
-    <t>禁运品和侵权产品是所有站点严格禁止的。</t>
-  </si>
-  <si>
-    <t>判断题</t>
-  </si>
-  <si>
-    <t>在 Shopee 聊聊中，卖家可以引导买家到 WhatsApp 进行私下交易。</t>
-  </si>
-  <si>
-    <t>正确</t>
-  </si>
-  <si>
-    <t>错误</t>
-  </si>
-  <si>
-    <t>平台规范</t>
-  </si>
-  <si>
-    <t>引导线下交易会导致店铺扣分甚至永久封禁。</t>
-  </si>
-  <si>
-    <t>商品设置了预售（Pre-order）后，该商品将不再享有流量扶持。</t>
-  </si>
-  <si>
-    <t>流量规则</t>
-  </si>
-  <si>
-    <t>虽然预售比例过高会限单，但单品预售并不直接等于零流量。</t>
-  </si>
-  <si>
-    <t>填空题</t>
-  </si>
-  <si>
-    <t>Shopee 的订单履约期限（DTS）通常设置为 ___ 到 ___ 个工作日。</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>发货时效</t>
-  </si>
-  <si>
-    <t>现货 DTS 为 2个工作日，预售为 3-10个工作日。</t>
-  </si>
-  <si>
-    <t>东南亚市场中，最大的移动电商大促节点通常是双 ___ 大促。</t>
-  </si>
-  <si>
-    <t>11, 12</t>
-  </si>
-  <si>
-    <t>平台大促</t>
-  </si>
-  <si>
-    <t>11.11 和 12.12 是全平台流量最高的日子。</t>
-  </si>
-  <si>
-    <t>简答题</t>
-  </si>
-  <si>
-    <t>请简述如何通过“加价购”（Add-on Deal）提升客单价？</t>
-  </si>
-  <si>
     <t>营销工具</t>
   </si>
   <si>
     <t>答：通过主商品搭配相关附属商品并给予折扣，引导买家凑单购买。</t>
-  </si>
-  <si>
-    <t>如果店铺因延迟发货率（LSR）过高导致扣分，应如何优化？</t>
-  </si>
-  <si>
-    <t>店铺运维</t>
-  </si>
-  <si>
-    <t>答：盘点库存确保现货、优化供应链、及时转预售、提高仓库打包效率。</t>
   </si>
 </sst>
 </file>
@@ -1323,13 +1224,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="54.625" customWidth="1"/>
     <col min="11" max="11" width="7.875" customWidth="1"/>
@@ -1412,60 +1313,54 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>37</v>
@@ -1481,205 +1376,40 @@
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="3">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
-        <v>12</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/backend/static/templates/试题批量导入模板.xlsx
+++ b/backend/static/templates/试题批量导入模板.xlsx
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1235,7 +1235,7 @@
     <col min="2" max="2" width="54.625" customWidth="1"/>
     <col min="11" max="11" width="7.875" customWidth="1"/>
     <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="22.375" customWidth="1"/>
+    <col min="13" max="13" width="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
